--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\ImageApp-TeluguQuotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCA34B-D032-47EC-B387-55875A253F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB622825-D5FA-4D36-B801-3C749E1DB522}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1446">
   <si>
     <t>Headers</t>
   </si>
@@ -168,13 +168,4213 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C1/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C4/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C5/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C6/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C7/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C8/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C9/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C10/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C11/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/HD/50.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/33.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/34.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/35.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/36.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/37.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/38.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/39.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/40.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/41.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/42.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/43.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/44.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/45.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/46.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/47.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/48.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/49.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/HD/50.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +4388,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -213,10 +4421,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -240,8 +4449,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,7 +4770,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,288 +4907,4445 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="X2" s="1"/>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>846</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>896</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
+        <v>946</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" t="s">
+        <v>996</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="X3" s="1"/>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>847</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" t="s">
+        <v>897</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" t="s">
+        <v>947</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O3" t="s">
+        <v>997</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B4" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="X4" s="1"/>
+      <c r="D4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" t="s">
+        <v>848</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" t="s">
+        <v>898</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="s">
+        <v>948</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" t="s">
+        <v>998</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="X5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>799</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>849</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" t="s">
+        <v>899</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>949</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" t="s">
+        <v>999</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="X6" s="1"/>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>800</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>850</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>950</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="X7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
+        <v>851</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" t="s">
+        <v>901</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" t="s">
+        <v>951</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="X8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>802</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>852</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" t="s">
+        <v>902</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" t="s">
+        <v>952</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="X9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>803</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" t="s">
+        <v>853</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" t="s">
+        <v>903</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" t="s">
+        <v>953</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>446</v>
+      </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="X10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>804</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>854</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" t="s">
+        <v>904</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" t="s">
+        <v>954</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>496</v>
+      </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="X11" s="1"/>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>805</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>855</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" t="s">
+        <v>905</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M11" t="s">
+        <v>955</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>546</v>
+      </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="X12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>806</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>856</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" t="s">
+        <v>906</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" t="s">
+        <v>956</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>596</v>
+      </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="X13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>807</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
+        <v>857</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>907</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" t="s">
+        <v>957</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>646</v>
+      </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="X14" s="1"/>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>808</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>858</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" t="s">
+        <v>908</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M14" t="s">
+        <v>958</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>696</v>
+      </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="X15" s="1"/>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>809</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" t="s">
+        <v>859</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" t="s">
+        <v>909</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M15" t="s">
+        <v>959</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="6"/>
-      <c r="X16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>810</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>860</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" t="s">
+        <v>910</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" t="s">
+        <v>960</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="17" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="6"/>
-      <c r="X17" s="1"/>
+    <row r="17" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>811</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
+        <v>861</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>911</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" t="s">
+        <v>961</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>1411</v>
+      </c>
     </row>
-    <row r="18" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="6"/>
-      <c r="X18" s="1"/>
+    <row r="18" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>812</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>862</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" t="s">
+        <v>912</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M18" t="s">
+        <v>962</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>1412</v>
+      </c>
     </row>
-    <row r="19" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="6"/>
-      <c r="X19" s="1"/>
+    <row r="19" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>813</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>863</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" t="s">
+        <v>913</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" t="s">
+        <v>963</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>1413</v>
+      </c>
     </row>
-    <row r="20" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="6"/>
-      <c r="X20" s="1"/>
+    <row r="20" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>814</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>864</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s">
+        <v>914</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" t="s">
+        <v>964</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>1414</v>
+      </c>
     </row>
-    <row r="21" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="6"/>
-      <c r="X21" s="1"/>
+    <row r="21" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>815</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>865</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>915</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M21" t="s">
+        <v>965</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>1415</v>
+      </c>
     </row>
-    <row r="22" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="6"/>
-      <c r="X22" s="1"/>
+    <row r="22" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>816</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>866</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>916</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" t="s">
+        <v>966</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1166</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>1416</v>
+      </c>
     </row>
-    <row r="23" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="6"/>
-      <c r="X23" s="1"/>
+    <row r="23" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>817</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="s">
+        <v>867</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>917</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M23" t="s">
+        <v>967</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1167</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>1417</v>
+      </c>
     </row>
-    <row r="24" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="6"/>
-      <c r="X24" s="1"/>
+    <row r="24" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>818</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" t="s">
+        <v>868</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>918</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M24" t="s">
+        <v>968</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1168</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>1418</v>
+      </c>
     </row>
-    <row r="25" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="6"/>
-      <c r="X25" s="1"/>
+    <row r="25" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>819</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" t="s">
+        <v>869</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>919</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" t="s">
+        <v>969</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1219</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>1419</v>
+      </c>
     </row>
-    <row r="26" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="6"/>
-      <c r="X26" s="1"/>
+    <row r="26" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" t="s">
+        <v>820</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" t="s">
+        <v>870</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>920</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M26" t="s">
+        <v>970</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>1420</v>
+      </c>
     </row>
-    <row r="27" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="6"/>
-      <c r="X27" s="1"/>
+    <row r="27" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>821</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" t="s">
+        <v>871</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>921</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M27" t="s">
+        <v>971</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>1421</v>
+      </c>
     </row>
-    <row r="28" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="6"/>
-      <c r="X28" s="1"/>
+    <row r="28" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" t="s">
+        <v>822</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>872</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>922</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="s">
+        <v>972</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1222</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="29" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="6"/>
-      <c r="X29" s="1"/>
+    <row r="29" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>823</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>873</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>923</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="s">
+        <v>973</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1223</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>1423</v>
+      </c>
     </row>
-    <row r="30" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="6"/>
-      <c r="X30" s="1"/>
+    <row r="30" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
+        <v>824</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" t="s">
+        <v>874</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>924</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" t="s">
+        <v>974</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1124</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1174</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1224</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>1424</v>
+      </c>
     </row>
-    <row r="31" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="6"/>
-      <c r="X31" s="1"/>
+    <row r="31" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>825</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>875</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>925</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="s">
+        <v>975</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AD31" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>1425</v>
+      </c>
     </row>
-    <row r="32" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="6"/>
-      <c r="X32" s="1"/>
+    <row r="32" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>826</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>876</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>926</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="s">
+        <v>976</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1226</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>1426</v>
+      </c>
     </row>
-    <row r="33" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="6"/>
-      <c r="X33" s="1"/>
+    <row r="33" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>827</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>877</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" t="s">
+        <v>927</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="s">
+        <v>977</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1177</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1227</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>1427</v>
+      </c>
     </row>
-    <row r="34" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="6"/>
-      <c r="X34" s="1"/>
+    <row r="34" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>828</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" t="s">
+        <v>878</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s">
+        <v>928</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="s">
+        <v>978</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>1428</v>
+      </c>
     </row>
-    <row r="35" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="6"/>
-      <c r="X35" s="1"/>
+    <row r="35" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>829</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="s">
+        <v>879</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>929</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" t="s">
+        <v>979</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1229</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>1429</v>
+      </c>
     </row>
-    <row r="36" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="6"/>
-      <c r="X36" s="1"/>
+    <row r="36" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>830</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>880</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s">
+        <v>930</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="s">
+        <v>980</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1180</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>1430</v>
+      </c>
     </row>
-    <row r="37" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="6"/>
-      <c r="X37" s="1"/>
+    <row r="37" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>831</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" t="s">
+        <v>881</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K37" t="s">
+        <v>931</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" t="s">
+        <v>981</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1231</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>1431</v>
+      </c>
     </row>
-    <row r="38" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="6"/>
-      <c r="X38" s="1"/>
+    <row r="38" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" t="s">
+        <v>832</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" t="s">
+        <v>882</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" t="s">
+        <v>932</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="s">
+        <v>982</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1282</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="39" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="6"/>
-      <c r="X39" s="1"/>
+    <row r="39" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>833</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" t="s">
+        <v>883</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" t="s">
+        <v>933</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="s">
+        <v>983</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1133</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1233</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>1433</v>
+      </c>
     </row>
-    <row r="40" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="6"/>
-      <c r="X40" s="1"/>
+    <row r="40" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" t="s">
+        <v>834</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" t="s">
+        <v>884</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" t="s">
+        <v>934</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="s">
+        <v>984</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>1434</v>
+      </c>
     </row>
-    <row r="41" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="6"/>
-      <c r="X41" s="1"/>
+    <row r="41" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>835</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" t="s">
+        <v>885</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" t="s">
+        <v>935</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" t="s">
+        <v>985</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1235</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>1435</v>
+      </c>
     </row>
-    <row r="42" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="6"/>
-      <c r="X42" s="1"/>
+    <row r="42" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" t="s">
+        <v>836</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" t="s">
+        <v>886</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s">
+        <v>936</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M42" t="s">
+        <v>986</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1136</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AD42" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>1436</v>
+      </c>
     </row>
-    <row r="43" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="6"/>
-      <c r="X43" s="1"/>
+    <row r="43" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s">
+        <v>837</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" t="s">
+        <v>887</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K43" t="s">
+        <v>937</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M43" t="s">
+        <v>987</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1137</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1187</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>1437</v>
+      </c>
     </row>
-    <row r="44" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="6"/>
-      <c r="X44" s="1"/>
+    <row r="44" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
+        <v>838</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" t="s">
+        <v>888</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" t="s">
+        <v>938</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="s">
+        <v>988</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1188</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="W44" t="s">
+        <v>1238</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>1438</v>
+      </c>
     </row>
-    <row r="45" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="6"/>
-      <c r="X45" s="1"/>
+    <row r="45" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" t="s">
+        <v>839</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" t="s">
+        <v>889</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K45" t="s">
+        <v>939</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M45" t="s">
+        <v>989</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1139</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1189</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1239</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AD45" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>1439</v>
+      </c>
     </row>
-    <row r="46" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="6"/>
-      <c r="X46" s="1"/>
+    <row r="46" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>840</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
+        <v>890</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" t="s">
+        <v>940</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M46" t="s">
+        <v>990</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1190</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AD46" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>1440</v>
+      </c>
     </row>
-    <row r="47" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="6"/>
-      <c r="X47" s="1"/>
+    <row r="47" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" t="s">
+        <v>841</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" t="s">
+        <v>891</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K47" t="s">
+        <v>941</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s">
+        <v>991</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="U47" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1241</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AD47" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>1441</v>
+      </c>
     </row>
-    <row r="48" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="6"/>
-      <c r="X48" s="1"/>
+    <row r="48" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>842</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" t="s">
+        <v>892</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K48" t="s">
+        <v>942</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M48" t="s">
+        <v>992</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="U48" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1242</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AD48" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>1442</v>
+      </c>
     </row>
-    <row r="49" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="6"/>
-      <c r="X49" s="1"/>
+    <row r="49" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>843</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I49" t="s">
+        <v>893</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" t="s">
+        <v>943</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M49" t="s">
+        <v>993</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="U49" t="s">
+        <v>1193</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AD49" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>1443</v>
+      </c>
     </row>
-    <row r="50" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="6"/>
-      <c r="X50" s="1"/>
+    <row r="50" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>844</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
+        <v>894</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K50" t="s">
+        <v>944</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" t="s">
+        <v>994</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1094</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1194</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="W50" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="51" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="6"/>
-      <c r="X51" s="1"/>
+    <row r="51" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>845</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" t="s">
+        <v>895</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K51" t="s">
+        <v>945</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M51" t="s">
+        <v>995</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AD51" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>1445</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{395BBEEF-64C0-4305-9141-1445874BC28A}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{96AD147E-8AF1-4758-A6F3-EA64F19C089A}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{940D86F4-F3B4-477F-BDD4-6B76E4D83794}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{F90CD960-9C26-4A23-B36A-8EB52085CBEF}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{1882A119-500A-4926-9E51-51AF925EB0CC}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{19CD0D18-15CA-4E3E-B271-E320201A5489}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{91C00A80-5652-4448-9215-6AB3D3D50D1A}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{49EE68FB-8D23-432F-A6D8-72D47C2C6AF8}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{B7858429-E400-4859-A297-F9200ED3F393}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{EA4F1183-8193-418C-8374-4FB34FDFDA09}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{A45E596D-C244-413B-A89A-7956C12670D3}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{3E7A695C-DE64-46B5-9D55-19C0922A0350}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{C4B7FD03-5F2E-4891-A84B-3C139C8D2132}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-TeluguQuotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A98395-76C8-4AD0-97DB-C756C8A0F8F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8BBFA-BBCB-49FD-A610-388EA0146737}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1510">
   <si>
     <t>Headers</t>
   </si>
@@ -4368,13 +4368,205 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C14/HD/50.png</t>
+  </si>
+  <si>
+    <t>collection15</t>
+  </si>
+  <si>
+    <t>collection16</t>
+  </si>
+  <si>
+    <t>collection17</t>
+  </si>
+  <si>
+    <t>collection18</t>
+  </si>
+  <si>
+    <t>collection19</t>
+  </si>
+  <si>
+    <t>collection20</t>
+  </si>
+  <si>
+    <t>collection21</t>
+  </si>
+  <si>
+    <t>collection22</t>
+  </si>
+  <si>
+    <t>collection23</t>
+  </si>
+  <si>
+    <t>collection24</t>
+  </si>
+  <si>
+    <t>collection25</t>
+  </si>
+  <si>
+    <t>collection26</t>
+  </si>
+  <si>
+    <t>collection27</t>
+  </si>
+  <si>
+    <t>collection28</t>
+  </si>
+  <si>
+    <t>collection29</t>
+  </si>
+  <si>
+    <t>collection30</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C15/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C16/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C17/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C18/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C19/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C20/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C21/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C22/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C23/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C24/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C25/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C26/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C27/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C28/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C29/TH/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-TeluguQuotes/master/C30/TH/1.png</t>
+  </si>
+  <si>
+    <t>collection15Thumbs</t>
+  </si>
+  <si>
+    <t>collection15HD</t>
+  </si>
+  <si>
+    <t>collection16Thumbs</t>
+  </si>
+  <si>
+    <t>collection16HD</t>
+  </si>
+  <si>
+    <t>collection17Thumbs</t>
+  </si>
+  <si>
+    <t>collection17HD</t>
+  </si>
+  <si>
+    <t>collection18Thumbs</t>
+  </si>
+  <si>
+    <t>collection18HD</t>
+  </si>
+  <si>
+    <t>collection19Thumbs</t>
+  </si>
+  <si>
+    <t>collection19HD</t>
+  </si>
+  <si>
+    <t>collection20Thumbs</t>
+  </si>
+  <si>
+    <t>collection20HD</t>
+  </si>
+  <si>
+    <t>collection30Thumbs</t>
+  </si>
+  <si>
+    <t>collection30HD</t>
+  </si>
+  <si>
+    <t>collection29Thumbs</t>
+  </si>
+  <si>
+    <t>collection29HD</t>
+  </si>
+  <si>
+    <t>collection21Thumbs</t>
+  </si>
+  <si>
+    <t>collection21HD</t>
+  </si>
+  <si>
+    <t>collection22Thumbs</t>
+  </si>
+  <si>
+    <t>collection22HD</t>
+  </si>
+  <si>
+    <t>collection23Thumbs</t>
+  </si>
+  <si>
+    <t>collection23HD</t>
+  </si>
+  <si>
+    <t>collection24Thumbs</t>
+  </si>
+  <si>
+    <t>collection24HD</t>
+  </si>
+  <si>
+    <t>collection25Thumbs</t>
+  </si>
+  <si>
+    <t>collection25HD</t>
+  </si>
+  <si>
+    <t>collection26Thumbs</t>
+  </si>
+  <si>
+    <t>collection26HD</t>
+  </si>
+  <si>
+    <t>collection27Thumbs</t>
+  </si>
+  <si>
+    <t>collection27HD</t>
+  </si>
+  <si>
+    <t>collection28Thumbs</t>
+  </si>
+  <si>
+    <t>collection28HD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4388,6 +4580,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4416,7 +4614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -4439,6 +4637,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4754,48 +4955,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2BA85-0A0D-4BBD-8243-7EDE44B35083}">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="89.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="89.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="89.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="89.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4889,8 +5122,104 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>1491</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -4985,7 +5314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -5080,7 +5409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -5175,7 +5504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -5270,7 +5599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -5365,7 +5694,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -5555,7 +5884,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -5650,7 +5979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5745,7 +6074,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -5840,7 +6169,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -5935,7 +6264,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -6030,7 +6359,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -6125,7 +6454,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -6220,7 +6549,16 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>438</v>
       </c>
@@ -6306,7 +6644,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="17" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>466</v>
       </c>
@@ -6392,7 +6739,16 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>494</v>
       </c>
@@ -6478,7 +6834,16 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>522</v>
       </c>
@@ -6564,7 +6929,16 @@
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>550</v>
       </c>
@@ -6650,7 +7024,16 @@
         <v>577</v>
       </c>
     </row>
-    <row r="21" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>578</v>
       </c>
@@ -6736,7 +7119,16 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>606</v>
       </c>
@@ -6822,7 +7214,16 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="6" t="s">
         <v>634</v>
       </c>
@@ -6908,7 +7309,16 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="6" t="s">
         <v>662</v>
       </c>
@@ -6994,7 +7404,16 @@
         <v>689</v>
       </c>
     </row>
-    <row r="25" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>690</v>
       </c>
@@ -7080,7 +7499,16 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>718</v>
       </c>
@@ -7166,7 +7594,16 @@
         <v>745</v>
       </c>
     </row>
-    <row r="27" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>746</v>
       </c>
@@ -7252,7 +7689,16 @@
         <v>773</v>
       </c>
     </row>
-    <row r="28" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="6" t="s">
         <v>774</v>
       </c>
@@ -7338,7 +7784,16 @@
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
       <c r="D29" s="6" t="s">
         <v>802</v>
       </c>
@@ -7424,7 +7879,16 @@
         <v>829</v>
       </c>
     </row>
-    <row r="30" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
       <c r="D30" s="6" t="s">
         <v>830</v>
       </c>
@@ -7510,7 +7974,16 @@
         <v>857</v>
       </c>
     </row>
-    <row r="31" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>858</v>
       </c>
@@ -7596,7 +8069,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="32" spans="4:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>886</v>
       </c>
@@ -9317,6 +9790,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C2/TH/1.png" xr:uid="{395BBEEF-64C0-4305-9141-1445874BC28A}"/>
     <hyperlink ref="B4" r:id="rId2" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C3/TH/1.png" xr:uid="{96AD147E-8AF1-4758-A6F3-EA64F19C089A}"/>
@@ -9331,8 +9805,9 @@
     <hyperlink ref="B13" r:id="rId11" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C12/TH/1.png" xr:uid="{A45E596D-C244-413B-A89A-7956C12670D3}"/>
     <hyperlink ref="B14" r:id="rId12" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C13/TH/1.png" xr:uid="{3E7A695C-DE64-46B5-9D55-19C0922A0350}"/>
     <hyperlink ref="B15" r:id="rId13" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/1.png" xr:uid="{C4B7FD03-5F2E-4891-A84B-3C139C8D2132}"/>
+    <hyperlink ref="B16:B31" r:id="rId14" display="https://raw.githubusercontent.com/indpDB/ImageApp-TeluguQuotes/master/C14/TH/1.png" xr:uid="{497B3CD6-3E36-45B8-9D5F-AB4714C072B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>